--- a/Dokumente/Sprint-Backlog/Sprint 3 - StundenCALC.xlsx
+++ b/Dokumente/Sprint-Backlog/Sprint 3 - StundenCALC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Documents\GitHub\FlyCheckBook BugFixing Saving to DB\ZumGelbenBach\Dokumente\Sprint-Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B28961-213A-4971-AE7D-2C5E43A106F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F7033E-1506-476A-BE5F-9645958C49C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92CCCCB0-B93B-471F-93D2-22D7D6513D39}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{92CCCCB0-B93B-471F-93D2-22D7D6513D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>schätz</t>
-  </si>
-  <si>
     <t>Tatsächlich</t>
   </si>
   <si>
@@ -57,6 +55,141 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Dokumentation + Project Managment</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>Erstellen Mockups u. Wireframes</t>
+  </si>
+  <si>
+    <t>Website “Menu-Karte” erstellen</t>
+  </si>
+  <si>
+    <t>Datenbank “Menu-Karte”</t>
+  </si>
+  <si>
+    <t>Einführung in Blazor und C# Coding</t>
+  </si>
+  <si>
+    <t>Website “Warenkorb”</t>
+  </si>
+  <si>
+    <t>In Arbeit</t>
+  </si>
+  <si>
+    <t>Datenbank “Warenkorb/Bestellungen”</t>
+  </si>
+  <si>
+    <t>Aufwand</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Dokumentation + Projekt Management + Architekturdokument</t>
+  </si>
+  <si>
+    <t>Implementierung der Küchenansicht</t>
+  </si>
+  <si>
+    <t>Logik: Anpassen von Speisen im Warenkorb</t>
+  </si>
+  <si>
+    <t>Logik: Automatische Kalkulation der Kosten</t>
+  </si>
+  <si>
+    <t>Logik: Absenden der Bestellung für spezifische Tischnummer</t>
+  </si>
+  <si>
+    <t>Abschluss Warenkorb</t>
+  </si>
+  <si>
+    <t>Dokumentation &amp; Organisation</t>
+  </si>
+  <si>
+    <t>Layout / Design</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>offen</t>
+  </si>
+  <si>
+    <t>Anbindung API</t>
+  </si>
+  <si>
+    <t>Anpassen Felder für API Erweiterung</t>
+  </si>
+  <si>
+    <t>Küchenansicht optimieren</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Mockups</t>
+  </si>
+  <si>
+    <t>menu karte</t>
+  </si>
+  <si>
+    <t>Db menu karte</t>
+  </si>
+  <si>
+    <t>einführung c#</t>
+  </si>
+  <si>
+    <t>Warenkorb</t>
+  </si>
+  <si>
+    <t>db Warenkorb</t>
+  </si>
+  <si>
+    <t>Küchenansicht</t>
+  </si>
+  <si>
+    <t>logik warenkorb</t>
+  </si>
+  <si>
+    <t>logik kalk kost</t>
+  </si>
+  <si>
+    <t>logik Absenden</t>
+  </si>
+  <si>
+    <t>Abschluss warenkorb</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Api</t>
+  </si>
+  <si>
+    <t>API erweiterung</t>
+  </si>
+  <si>
+    <t>Küchenansicht optimierung</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -80,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,17 +249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -141,14 +263,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -483,64 +610,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E2C0DC-6609-4A72-BB43-49C0067D4693}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -559,13 +678,16 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
       <c r="H3">
         <f>SUM(A3:A9)+SUM(C3:C8)+SUM(E3:E8)</f>
         <v>135.5</v>
       </c>
       <c r="I3">
         <f>SUM(B3:B9)+SUM(D3:D8)+SUM(F3:F8)</f>
-        <v>72</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -584,6 +706,9 @@
       <c r="E4">
         <v>9</v>
       </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -601,6 +726,9 @@
       <c r="E5">
         <v>8</v>
       </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -618,6 +746,9 @@
       <c r="E6">
         <v>7</v>
       </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -634,6 +765,9 @@
       </c>
       <c r="E7">
         <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -641,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -651,11 +785,588 @@
       </c>
       <c r="E8">
         <v>8</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>SUM(A3:A9)</f>
+        <v>48.5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:F12" si="0">SUM(B3:B9)</f>
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>48.5</v>
+      </c>
+      <c r="C22">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>48.5</v>
+      </c>
+      <c r="H22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>42</v>
+      </c>
+      <c r="H23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFDA720-AB63-4567-9B4F-FF10E5B9A527}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
